--- a/doc/Nucleo-H563ZI morpho.xlsx
+++ b/doc/Nucleo-H563ZI morpho.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ep14231\Documents\workspace\H563ZI_test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DA1D6-B9B5-4DD7-9D17-FBC79C512999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,433 +25,436 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="139">
-  <si>
-    <t xml:space="preserve">CN11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">odd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">even</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V_EXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VREFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V_STLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART3 TX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOREF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
+  <si>
+    <t>CN11</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>CN12</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>5V_EXT</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>VREFP</t>
+  </si>
+  <si>
+    <t>5V_STLK</t>
+  </si>
+  <si>
+    <t>PF6</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>PD8</t>
+  </si>
+  <si>
+    <t>USART3 TX</t>
+  </si>
+  <si>
+    <t>PF7</t>
+  </si>
+  <si>
+    <t>IOREF</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA12</t>
   </si>
   <si>
     <t xml:space="preserve">USB_FS_P </t>
   </si>
   <si>
-    <t xml:space="preserve">PA13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA11</t>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>NRST</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA11</t>
   </si>
   <si>
     <t xml:space="preserve">USB_FS_N </t>
   </si>
   <si>
-    <t xml:space="preserve">PA14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3V3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VBAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PB0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART3 RX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LD3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG6</t>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>3V3</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PC14</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PC15</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PH0</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>PH1</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>AGND</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>LD1</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PF5</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC0</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PF4</t>
+  </si>
+  <si>
+    <t>LD2</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>PG2</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>PF10</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>PG3</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>PF14</t>
+  </si>
+  <si>
+    <t>PF1</t>
+  </si>
+  <si>
+    <t>PF2</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>PF0</t>
+  </si>
+  <si>
+    <t>PF8</t>
+  </si>
+  <si>
+    <t>PE15</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PF9</t>
+  </si>
+  <si>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>PG1</t>
+  </si>
+  <si>
+    <t>PF13</t>
+  </si>
+  <si>
+    <t>PF3</t>
+  </si>
+  <si>
+    <t>PG0</t>
+  </si>
+  <si>
+    <t>PF12</t>
+  </si>
+  <si>
+    <t>PF15</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>PG14</t>
+  </si>
+  <si>
+    <t>PF11</t>
+  </si>
+  <si>
+    <t>PG9</t>
+  </si>
+  <si>
+    <t>PG15</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PG12</t>
+  </si>
+  <si>
+    <t>PG10</t>
+  </si>
+  <si>
+    <t>PD10</t>
+  </si>
+  <si>
+    <t>PG8</t>
+  </si>
+  <si>
+    <t>PG13</t>
+  </si>
+  <si>
+    <t>PG7</t>
+  </si>
+  <si>
+    <t>PG5</t>
+  </si>
+  <si>
+    <t>PD9</t>
+  </si>
+  <si>
+    <t>USART3 RX</t>
+  </si>
+  <si>
+    <t>PG11</t>
+  </si>
+  <si>
+    <t>PG4</t>
+  </si>
+  <si>
+    <t>LD3</t>
+  </si>
+  <si>
+    <t>PG6</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -454,25 +462,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -506,165 +496,134 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -723,62 +682,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -831,33 +806,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J42" activeCellId="0" sqref="J42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.06"/>
+    <col min="1" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="11" width="11.5703125" style="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,29 +869,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -925,29 +899,29 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="5">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -955,29 +929,29 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -985,29 +959,29 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="5">
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1015,29 +989,29 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1047,29 +1021,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1079,29 +1053,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="5">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="5">
         <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1111,29 +1085,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="5">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1141,29 +1115,29 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="5">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="5">
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1171,29 +1145,29 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="5">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1201,29 +1175,31 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="5">
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5" t="n">
+      <c r="I12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="5">
         <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -1231,8 +1207,8 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1241,21 +1217,21 @@
       <c r="C13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="5">
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="5">
         <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -1263,29 +1239,29 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="5">
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="5">
         <v>26</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1293,29 +1269,29 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="n">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="5">
         <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="5">
         <v>28</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -1323,29 +1299,29 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="5">
         <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1353,29 +1329,29 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="n">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="5">
         <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="5">
         <v>32</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1383,15 +1359,15 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="n">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1400,14 +1376,16 @@
       <c r="F18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="5">
         <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5" t="n">
+      <c r="I18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="5">
         <v>34</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -1415,29 +1393,29 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="n">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="5">
         <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="5">
         <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -1445,29 +1423,29 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="n">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="5">
         <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="5">
         <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1477,29 +1455,29 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="n">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="5">
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="5">
         <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="5">
         <v>40</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -1507,29 +1485,29 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="n">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="5">
         <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="5">
         <v>42</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -1537,29 +1515,29 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="n">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="5">
         <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="5">
         <v>44</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -1567,29 +1545,29 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="n">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="5">
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>93</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="5">
         <v>46</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1597,29 +1575,29 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="n">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="5">
         <v>47</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="5">
         <v>48</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -1627,29 +1605,29 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="n">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="5">
         <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="5">
         <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="5">
         <v>50</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1657,29 +1635,29 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="n">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="5">
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="5">
         <v>51</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="5">
         <v>52</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -1687,29 +1665,29 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="n">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="5">
         <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="5">
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>108</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="5">
         <v>54</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -1717,29 +1695,29 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="n">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="5">
         <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="5">
         <v>55</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="5">
         <v>56</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -1747,29 +1725,29 @@
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="n">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="5">
         <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="5">
         <v>57</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>115</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="5">
         <v>58</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -1777,29 +1755,29 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="n">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="5">
         <v>60</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="5">
         <v>59</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>118</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="5">
         <v>60</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -1807,29 +1785,29 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="n">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="5">
         <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="5">
         <v>61</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>121</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="5">
         <v>62</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -1837,29 +1815,29 @@
       </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="n">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="5">
         <v>63</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="5">
         <v>64</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -1867,29 +1845,29 @@
       </c>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="n">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="5">
         <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="5">
         <v>65</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>128</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="5">
         <v>66</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -1897,29 +1875,29 @@
       </c>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="n">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="5">
         <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="5">
         <v>67</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>131</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="5">
         <v>68</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -1927,8 +1905,8 @@
       </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>69</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -1937,14 +1915,14 @@
       <c r="C36" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="9" t="n">
+      <c r="D36" s="9">
         <v>70</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F36" s="12"/>
-      <c r="G36" s="9" t="n">
+      <c r="G36" s="9">
         <v>69</v>
       </c>
       <c r="H36" s="10" t="s">
@@ -1953,7 +1931,7 @@
       <c r="I36" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="J36" s="9" t="n">
+      <c r="J36" s="9">
         <v>70</v>
       </c>
       <c r="K36" s="10" t="s">
@@ -1961,14 +1939,10 @@
       </c>
       <c r="L36" s="12"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K38" s="14"/>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/doc/Nucleo-H563ZI morpho.xlsx
+++ b/doc/Nucleo-H563ZI morpho.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ep14231\Documents\workspace\H563ZI_test\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DA1D6-B9B5-4DD7-9D17-FBC79C512999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,436 +20,448 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
-  <si>
-    <t>CN11</t>
-  </si>
-  <si>
-    <t>odd</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>CN12</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>PC9</t>
-  </si>
-  <si>
-    <t>PC8</t>
-  </si>
-  <si>
-    <t>PC12</t>
-  </si>
-  <si>
-    <t>PD2</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
-    <t>VDD</t>
-  </si>
-  <si>
-    <t>5V_EXT</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>BOOT0</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>VREFP</t>
-  </si>
-  <si>
-    <t>5V_STLK</t>
-  </si>
-  <si>
-    <t>PF6</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>PD8</t>
-  </si>
-  <si>
-    <t>USART3 TX</t>
-  </si>
-  <si>
-    <t>PF7</t>
-  </si>
-  <si>
-    <t>IOREF</t>
-  </si>
-  <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>PA12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="144">
+  <si>
+    <t xml:space="preserve">CN11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">even</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V_EXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VREFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V_STLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3 TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOREF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA12</t>
   </si>
   <si>
     <t xml:space="preserve">USB_FS_P </t>
   </si>
   <si>
-    <t>PA13</t>
-  </si>
-  <si>
-    <t>NRST</t>
-  </si>
-  <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>PA11</t>
+    <t xml:space="preserve">PA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA11</t>
   </si>
   <si>
     <t xml:space="preserve">USB_FS_N </t>
   </si>
   <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t>3V3</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>5V</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>PA9</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>PC13</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>VIN</t>
-  </si>
-  <si>
-    <t>PA8</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>PC14</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>PB15</t>
-  </si>
-  <si>
-    <t>PC15</t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>PB14</t>
-  </si>
-  <si>
-    <t>PH0</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>PB13</t>
-  </si>
-  <si>
-    <t>PH1</t>
-  </si>
-  <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>AGND</t>
-  </si>
-  <si>
-    <t>VBAT</t>
-  </si>
-  <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>LD1</t>
-  </si>
-  <si>
-    <t>PA10</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PA2</t>
-  </si>
-  <si>
-    <t>PF5</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>PF4</t>
-  </si>
-  <si>
-    <t>LD2</t>
-  </si>
-  <si>
-    <t>PD4</t>
-  </si>
-  <si>
-    <t>PD3</t>
-  </si>
-  <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>PD5</t>
-  </si>
-  <si>
-    <t>PG2</t>
-  </si>
-  <si>
-    <t>PD13</t>
-  </si>
-  <si>
-    <t>PF10</t>
-  </si>
-  <si>
-    <t>PD6</t>
-  </si>
-  <si>
-    <t>PG3</t>
-  </si>
-  <si>
-    <t>PD12</t>
-  </si>
-  <si>
-    <t>PE7</t>
-  </si>
-  <si>
-    <t>PD7</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
-    <t>PD11</t>
-  </si>
-  <si>
-    <t>PD14</t>
-  </si>
-  <si>
-    <t>PE3</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
-    <t>PE10</t>
-  </si>
-  <si>
-    <t>PD15</t>
-  </si>
-  <si>
-    <t>PE5</t>
-  </si>
-  <si>
-    <t>PE12</t>
-  </si>
-  <si>
-    <t>PF14</t>
-  </si>
-  <si>
-    <t>PF1</t>
-  </si>
-  <si>
-    <t>PF2</t>
-  </si>
-  <si>
-    <t>PE14</t>
-  </si>
-  <si>
-    <t>PE9</t>
-  </si>
-  <si>
-    <t>PF0</t>
-  </si>
-  <si>
-    <t>PF8</t>
-  </si>
-  <si>
-    <t>PE15</t>
-  </si>
-  <si>
-    <t>PD1</t>
-  </si>
-  <si>
-    <t>PF9</t>
-  </si>
-  <si>
-    <t>PE13</t>
-  </si>
-  <si>
-    <t>PE11</t>
-  </si>
-  <si>
-    <t>PD0</t>
-  </si>
-  <si>
-    <t>PG1</t>
-  </si>
-  <si>
-    <t>PF13</t>
-  </si>
-  <si>
-    <t>PF3</t>
-  </si>
-  <si>
-    <t>PG0</t>
-  </si>
-  <si>
-    <t>PF12</t>
-  </si>
-  <si>
-    <t>PF15</t>
-  </si>
-  <si>
-    <t>PE6</t>
-  </si>
-  <si>
-    <t>PG14</t>
-  </si>
-  <si>
-    <t>PF11</t>
-  </si>
-  <si>
-    <t>PG9</t>
-  </si>
-  <si>
-    <t>PG15</t>
-  </si>
-  <si>
-    <t>PE0</t>
-  </si>
-  <si>
-    <t>PG12</t>
-  </si>
-  <si>
-    <t>PG10</t>
-  </si>
-  <si>
-    <t>PD10</t>
-  </si>
-  <si>
-    <t>PG8</t>
-  </si>
-  <si>
-    <t>PG13</t>
-  </si>
-  <si>
-    <t>PG7</t>
-  </si>
-  <si>
-    <t>PG5</t>
-  </si>
-  <si>
-    <t>PD9</t>
-  </si>
-  <si>
-    <t>USART3 RX</t>
-  </si>
-  <si>
-    <t>PG11</t>
-  </si>
-  <si>
-    <t>PG4</t>
-  </si>
-  <si>
-    <t>LD3</t>
-  </si>
-  <si>
-    <t>PG6</t>
-  </si>
-  <si>
-    <t>USART1_TX</t>
-  </si>
-  <si>
-    <t>USART1_RX</t>
+    <t xml:space="preserve">PA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCPD_DBn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCPD_CC2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCPD_CC1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBUS_SENSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VBAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCPD_FLT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART3 RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -462,7 +469,25 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -496,134 +521,165 @@
     </fill>
   </fills>
   <borders count="9">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="15">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -682,78 +738,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -806,32 +846,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E43" activeCellId="0" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="11" width="11.5703125" style="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,29 +910,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="5">
+      <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="6"/>
-      <c r="J2" s="5">
+      <c r="J2" s="5" t="n">
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -899,29 +940,29 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="5">
+      <c r="D3" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="J3" s="5">
+      <c r="J3" s="5" t="n">
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -929,29 +970,29 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="5">
+      <c r="D4" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="5">
+      <c r="G4" s="5" t="n">
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="6"/>
-      <c r="J4" s="5">
+      <c r="J4" s="5" t="n">
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -959,29 +1000,29 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="5">
+      <c r="D5" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="5">
+      <c r="G5" s="5" t="n">
         <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="6"/>
-      <c r="J5" s="5">
+      <c r="J5" s="5" t="n">
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -989,29 +1030,29 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="n">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="5">
+      <c r="G6" s="5" t="n">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="6"/>
-      <c r="J6" s="5">
+      <c r="J6" s="5" t="n">
         <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1021,29 +1062,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="5">
+      <c r="D7" s="5" t="n">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="5">
+      <c r="G7" s="5" t="n">
         <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="5">
+      <c r="J7" s="5" t="n">
         <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1053,29 +1094,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="5">
+      <c r="D8" s="5" t="n">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="5">
+      <c r="G8" s="5" t="n">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="5">
+      <c r="J8" s="5" t="n">
         <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1085,29 +1126,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="5">
+      <c r="D9" s="5" t="n">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="5">
+      <c r="G9" s="5" t="n">
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="5">
+      <c r="J9" s="5" t="n">
         <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1115,29 +1156,29 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="5">
+      <c r="D10" s="5" t="n">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="5">
+      <c r="G10" s="5" t="n">
         <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="5">
+      <c r="J10" s="5" t="n">
         <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1145,29 +1186,29 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="5">
+      <c r="D11" s="5" t="n">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="5">
+      <c r="G11" s="5" t="n">
         <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="5">
+      <c r="J11" s="5" t="n">
         <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1175,519 +1216,523 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="5">
+      <c r="D12" s="5" t="n">
         <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="5">
+      <c r="G12" s="5" t="n">
         <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="5">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="5">
+      <c r="G13" s="5" t="n">
         <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="5">
+      <c r="J13" s="5" t="n">
         <v>24</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="5">
+      <c r="D14" s="5" t="n">
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="5">
+      <c r="G14" s="5" t="n">
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="J14" s="5">
+      <c r="J14" s="5" t="n">
         <v>26</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="5">
+      <c r="D15" s="5" t="n">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="5">
+      <c r="G15" s="5" t="n">
         <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="5">
+      <c r="J15" s="5" t="n">
         <v>28</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+        <v>58</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="5">
+      <c r="D16" s="5" t="n">
         <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="5">
+      <c r="G16" s="5" t="n">
         <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="5">
+      <c r="J16" s="5" t="n">
         <v>30</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+        <v>63</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="5">
+      <c r="D17" s="5" t="n">
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="5">
+      <c r="J17" s="5" t="n">
         <v>32</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="5">
+      <c r="D18" s="5" t="n">
         <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="5">
+        <v>72</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>33</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="5">
+        <v>73</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5" t="n">
         <v>34</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="5">
+      <c r="D19" s="5" t="n">
         <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="5">
+      <c r="G19" s="5" t="n">
         <v>35</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="5">
+      <c r="J19" s="5" t="n">
         <v>36</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="5">
+      <c r="D20" s="5" t="n">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="5">
+      <c r="G20" s="5" t="n">
         <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="5">
+      <c r="J20" s="5" t="n">
         <v>38</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="5">
+      <c r="D21" s="5" t="n">
         <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="5">
+      <c r="G21" s="5" t="n">
         <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="5">
+      <c r="J21" s="5" t="n">
         <v>40</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="5">
+      <c r="D22" s="5" t="n">
         <v>42</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="5">
+      <c r="G22" s="5" t="n">
         <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="5">
+      <c r="J22" s="5" t="n">
         <v>42</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="5">
+      <c r="D23" s="5" t="n">
         <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="G23" s="5">
+      <c r="G23" s="5" t="n">
         <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="5">
+      <c r="J23" s="5" t="n">
         <v>44</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="5">
+      <c r="D24" s="5" t="n">
         <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="G24" s="5">
+      <c r="G24" s="5" t="n">
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="5">
+      <c r="J24" s="5" t="n">
         <v>46</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="5">
+      <c r="D25" s="5" t="n">
         <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="5">
+      <c r="G25" s="5" t="n">
         <v>47</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="5">
+      <c r="J25" s="5" t="n">
         <v>48</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="5">
+      <c r="D26" s="5" t="n">
         <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F26" s="6"/>
-      <c r="G26" s="5">
+      <c r="G26" s="5" t="n">
         <v>49</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="5">
+      <c r="J26" s="5" t="n">
         <v>50</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="5">
+      <c r="D27" s="5" t="n">
         <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="n">
         <v>51</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="5">
+      <c r="J27" s="5" t="n">
         <v>52</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="5">
+      <c r="D28" s="5" t="n">
         <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="5">
+      <c r="G28" s="5" t="n">
         <v>53</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="5">
+      <c r="J28" s="5" t="n">
         <v>54</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -1695,254 +1740,257 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
         <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="5">
+      <c r="D29" s="5" t="n">
         <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F29" s="6"/>
-      <c r="G29" s="5">
+      <c r="G29" s="5" t="n">
         <v>55</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="5">
+      <c r="J29" s="5" t="n">
         <v>56</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="5">
+      <c r="D30" s="5" t="n">
         <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F30" s="6"/>
-      <c r="G30" s="5">
+      <c r="G30" s="5" t="n">
         <v>57</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="5">
+      <c r="J30" s="5" t="n">
         <v>58</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
         <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="5">
+      <c r="D31" s="5" t="n">
         <v>60</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F31" s="6"/>
-      <c r="G31" s="5">
+      <c r="G31" s="5" t="n">
         <v>59</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="5">
+      <c r="J31" s="5" t="n">
         <v>60</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
         <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="5">
+      <c r="D32" s="5" t="n">
         <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F32" s="6"/>
-      <c r="G32" s="5">
+      <c r="G32" s="5" t="n">
         <v>61</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="5">
+      <c r="J32" s="5" t="n">
         <v>62</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
         <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="5">
+      <c r="D33" s="5" t="n">
         <v>64</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="5">
+      <c r="G33" s="5" t="n">
         <v>63</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="5">
+      <c r="J33" s="5" t="n">
         <v>64</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
         <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="5">
+      <c r="D34" s="5" t="n">
         <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="5">
+      <c r="G34" s="5" t="n">
         <v>65</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="5">
+      <c r="J34" s="5" t="n">
         <v>66</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
         <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="5">
+      <c r="D35" s="5" t="n">
         <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="5">
+      <c r="G35" s="5" t="n">
         <v>67</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="5">
+        <v>135</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="5" t="n">
         <v>68</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="n">
         <v>69</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="B36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="9">
+      <c r="E36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="10" t="n">
         <v>69</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="H36" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="K36" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="L36" s="12"/>
+      <c r="K36" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
